--- a/Record.xlsx
+++ b/Record.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\leet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58627264-5D1C-4972-A8BF-DD4885B5A80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF24EC5C-D345-4949-9734-60DC19688A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,8 +364,8 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -391,31 +391,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>45444</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>45445</v>
+        <v>45444</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
-        <v>45445</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>45445</v>
@@ -423,66 +423,66 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1">
-        <v>45447</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1">
-        <v>45448</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1">
-        <v>45448</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B10" s="1">
-        <v>45450</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1">
-        <v>45451</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="B12" s="1">
-        <v>45452</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="B13" s="1">
-        <v>45461</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="B14" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -495,7 +495,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="B16" s="1">
         <v>45461</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>342</v>
+        <v>231</v>
       </c>
       <c r="B17" s="1">
         <v>45461</v>
@@ -511,15 +511,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>191</v>
+        <v>326</v>
       </c>
       <c r="B18" s="1">
-        <v>45461</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>709</v>
+        <v>342</v>
       </c>
       <c r="B19" s="1">
         <v>45461</v>
@@ -527,15 +527,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>2769</v>
+        <v>709</v>
       </c>
       <c r="B20" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>3110</v>
+        <v>1920</v>
       </c>
       <c r="B21" s="1">
         <v>45464</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>326</v>
+        <v>1929</v>
       </c>
       <c r="B22" s="1">
         <v>45464</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>1929</v>
+        <v>2769</v>
       </c>
       <c r="B23" s="1">
         <v>45464</v>
@@ -559,13 +559,16 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>1920</v>
+        <v>3110</v>
       </c>
       <c r="B24" s="1">
         <v>45464</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B24">
+    <sortCondition ref="A1:A24"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF24EC5C-D345-4949-9734-60DC19688A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887774BE-1829-4BC3-84CA-681EAC7572D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -439,23 +439,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1">
-        <v>45447</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1">
-        <v>45448</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1">
         <v>45448</v>
@@ -463,39 +463,39 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1">
-        <v>45450</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1">
-        <v>45451</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="B14" s="1">
-        <v>45452</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B16" s="1">
         <v>45461</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="B17" s="1">
         <v>45461</v>
@@ -511,23 +511,23 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="B18" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B19" s="1">
-        <v>45461</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>709</v>
+        <v>342</v>
       </c>
       <c r="B20" s="1">
         <v>45461</v>
@@ -535,15 +535,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>1920</v>
+        <v>709</v>
       </c>
       <c r="B21" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B22" s="1">
         <v>45464</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>2769</v>
+        <v>1929</v>
       </c>
       <c r="B23" s="1">
         <v>45464</v>
@@ -559,15 +559,23 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B24" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>3110</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B24">
-    <sortCondition ref="A1:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
+    <sortCondition ref="A1:A25"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887774BE-1829-4BC3-84CA-681EAC7572D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95C8912-BF24-4418-A3B9-1E5FDE94E565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -431,103 +431,103 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
-        <v>45445</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1">
-        <v>45447</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1">
-        <v>45448</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1">
-        <v>45448</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1">
-        <v>45450</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B14" s="1">
-        <v>45451</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1">
-        <v>45452</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="B16" s="1">
-        <v>45461</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="B17" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="B18" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="B19" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>342</v>
+        <v>191</v>
       </c>
       <c r="B20" s="1">
         <v>45461</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>709</v>
+        <v>231</v>
       </c>
       <c r="B21" s="1">
         <v>45461</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>1920</v>
+        <v>326</v>
       </c>
       <c r="B22" s="1">
         <v>45464</v>
@@ -551,31 +551,63 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>1929</v>
+        <v>342</v>
       </c>
       <c r="B23" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>2769</v>
+        <v>709</v>
       </c>
       <c r="B24" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>3110</v>
+        <v>1920</v>
       </c>
       <c r="B25" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>1929</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2235</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>2769</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>3110</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
-    <sortCondition ref="A1:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B29">
+    <sortCondition ref="A1:A29"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95C8912-BF24-4418-A3B9-1E5FDE94E565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C3A908-49FD-4ED9-BA9E-8E3754386035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -535,31 +535,31 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B21" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="B22" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B23" s="1">
-        <v>45461</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>709</v>
+        <v>342</v>
       </c>
       <c r="B24" s="1">
         <v>45461</v>
@@ -567,31 +567,31 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>1920</v>
+        <v>709</v>
       </c>
       <c r="B25" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>1929</v>
+        <v>1480</v>
       </c>
       <c r="B26" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>2235</v>
+        <v>1920</v>
       </c>
       <c r="B27" s="1">
-        <v>45711</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>2769</v>
+        <v>1929</v>
       </c>
       <c r="B28" s="1">
         <v>45464</v>
@@ -599,15 +599,39 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
+        <v>2235</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2236</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2769</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
         <v>3110</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B32" s="1">
         <v>45464</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B29">
-    <sortCondition ref="A1:A29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+    <sortCondition ref="A1:A32"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C3A908-49FD-4ED9-BA9E-8E3754386035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5FA3ED-4AEF-4CC0-B6ED-E3B3D2CC21F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -583,15 +583,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B27" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B28" s="1">
         <v>45464</v>
@@ -599,15 +599,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>2235</v>
+        <v>1929</v>
       </c>
       <c r="B29" s="1">
-        <v>45711</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B30" s="1">
         <v>45711</v>
@@ -615,23 +615,31 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>2769</v>
+        <v>2236</v>
       </c>
       <c r="B31" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B32" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>3110</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
-    <sortCondition ref="A1:A32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B33">
+    <sortCondition ref="A1:A33"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5FA3ED-4AEF-4CC0-B6ED-E3B3D2CC21F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3FA47D-4B56-4BFB-8F8D-2880B1855F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -559,15 +559,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B24" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>709</v>
+        <v>342</v>
       </c>
       <c r="B25" s="1">
         <v>45461</v>
@@ -575,15 +575,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>1480</v>
+        <v>709</v>
       </c>
       <c r="B26" s="1">
-        <v>45711</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>1672</v>
+        <v>771</v>
       </c>
       <c r="B27" s="1">
         <v>45712</v>
@@ -591,55 +591,71 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>1920</v>
+        <v>1480</v>
       </c>
       <c r="B28" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>1929</v>
+        <v>1672</v>
       </c>
       <c r="B29" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>2235</v>
+        <v>1920</v>
       </c>
       <c r="B30" s="1">
-        <v>45711</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>2236</v>
+        <v>1929</v>
       </c>
       <c r="B31" s="1">
-        <v>45711</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>2769</v>
+        <v>2235</v>
       </c>
       <c r="B32" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
+        <v>2236</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>2769</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
         <v>3110</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B35" s="1">
         <v>45464</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B33">
-    <sortCondition ref="A1:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B35">
+    <sortCondition ref="A1:A35"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3FA47D-4B56-4BFB-8F8D-2880B1855F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C7C014-6825-491B-AE38-D7960806C36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -591,31 +591,31 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>1480</v>
+        <v>1021</v>
       </c>
       <c r="B28" s="1">
-        <v>45711</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>1672</v>
+        <v>1480</v>
       </c>
       <c r="B29" s="1">
-        <v>45712</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B30" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B31" s="1">
         <v>45464</v>
@@ -623,15 +623,15 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>2235</v>
+        <v>1929</v>
       </c>
       <c r="B32" s="1">
-        <v>45711</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B33" s="1">
         <v>45711</v>
@@ -639,23 +639,31 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>2769</v>
+        <v>2236</v>
       </c>
       <c r="B34" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B35" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>3110</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B35">
-    <sortCondition ref="A1:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
+    <sortCondition ref="A1:A36"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C7C014-6825-491B-AE38-D7960806C36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF932C3-30F0-4CFA-8BAA-7CE410356763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -575,23 +575,23 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>709</v>
+        <v>383</v>
       </c>
       <c r="B26" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B27" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>1021</v>
+        <v>771</v>
       </c>
       <c r="B28" s="1">
         <v>45712</v>
@@ -599,15 +599,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>1480</v>
+        <v>1021</v>
       </c>
       <c r="B29" s="1">
-        <v>45711</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>1672</v>
+        <v>1051</v>
       </c>
       <c r="B30" s="1">
         <v>45712</v>
@@ -615,55 +615,71 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>1920</v>
+        <v>1480</v>
       </c>
       <c r="B31" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>1929</v>
+        <v>1672</v>
       </c>
       <c r="B32" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>2235</v>
+        <v>1920</v>
       </c>
       <c r="B33" s="1">
-        <v>45711</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>2236</v>
+        <v>1929</v>
       </c>
       <c r="B34" s="1">
-        <v>45711</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>2769</v>
+        <v>2235</v>
       </c>
       <c r="B35" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
+        <v>2236</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>2769</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
         <v>3110</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B38" s="1">
         <v>45464</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
-    <sortCondition ref="A1:A36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B38">
+    <sortCondition ref="A1:A38"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF932C3-30F0-4CFA-8BAA-7CE410356763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6871E1C1-2D65-4584-A3AC-32844F15EEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,8 +364,8 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6871E1C1-2D65-4584-A3AC-32844F15EEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A5345C-6AD8-4D0A-AF99-4A3027615B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -615,31 +615,31 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>1480</v>
+        <v>1108</v>
       </c>
       <c r="B31" s="1">
-        <v>45711</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>1672</v>
+        <v>1480</v>
       </c>
       <c r="B32" s="1">
-        <v>45712</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B33" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B34" s="1">
         <v>45464</v>
@@ -647,15 +647,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>2235</v>
+        <v>1929</v>
       </c>
       <c r="B35" s="1">
-        <v>45711</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B36" s="1">
         <v>45711</v>
@@ -663,23 +663,31 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>2769</v>
+        <v>2236</v>
       </c>
       <c r="B37" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B38" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>3110</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B38">
-    <sortCondition ref="A1:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B39">
+    <sortCondition ref="A1:A39"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A5345C-6AD8-4D0A-AF99-4A3027615B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACB334C-2692-4238-8152-CB44356EFE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -655,15 +655,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>2235</v>
+        <v>2011</v>
       </c>
       <c r="B36" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B37" s="1">
         <v>45711</v>
@@ -671,23 +671,31 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>2769</v>
+        <v>2236</v>
       </c>
       <c r="B38" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B39" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>3110</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B39">
-    <sortCondition ref="A1:A39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B40">
+    <sortCondition ref="A1:A40"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACB334C-2692-4238-8152-CB44356EFE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54108D1-7014-43CE-9ECD-8A2CA31358A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -663,15 +663,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B37" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B38" s="1">
         <v>45711</v>
@@ -679,23 +679,31 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>2769</v>
+        <v>2236</v>
       </c>
       <c r="B39" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B40" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>3110</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B40">
-    <sortCondition ref="A1:A40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B41">
+    <sortCondition ref="A1:A41"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54108D1-7014-43CE-9ECD-8A2CA31358A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE26835C-5D14-4158-84E0-BEAFCD100552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,12 +75,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -361,16 +362,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -582,24 +583,24 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>709</v>
+      <c r="A27" s="3">
+        <v>412</v>
       </c>
       <c r="B27" s="1">
-        <v>45461</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B28" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>1021</v>
+        <v>771</v>
       </c>
       <c r="B29" s="1">
         <v>45712</v>
@@ -607,7 +608,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B30" s="1">
         <v>45712</v>
@@ -615,7 +616,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B31" s="1">
         <v>45712</v>
@@ -623,31 +624,31 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>1480</v>
+        <v>1108</v>
       </c>
       <c r="B32" s="1">
-        <v>45711</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>1672</v>
+        <v>1480</v>
       </c>
       <c r="B33" s="1">
-        <v>45712</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B34" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B35" s="1">
         <v>45464</v>
@@ -655,15 +656,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B36" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B37" s="1">
         <v>45713</v>
@@ -671,15 +672,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B38" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B39" s="1">
         <v>45711</v>
@@ -687,23 +688,31 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>2769</v>
+        <v>2236</v>
       </c>
       <c r="B40" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B41" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>3110</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B41">
-    <sortCondition ref="A1:A41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B42">
+    <sortCondition ref="A1:A42"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE26835C-5D14-4158-84E0-BEAFCD100552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F7CA7D-6FB4-4A8B-A276-9517E43C4092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,13 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -362,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -583,7 +582,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>412</v>
       </c>
       <c r="B27" s="1">
@@ -632,31 +631,31 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B33" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>1672</v>
+        <v>1480</v>
       </c>
       <c r="B34" s="1">
-        <v>45712</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B35" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B36" s="1">
         <v>45464</v>
@@ -664,15 +663,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B37" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B38" s="1">
         <v>45713</v>
@@ -680,15 +679,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B39" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B40" s="1">
         <v>45711</v>
@@ -696,23 +695,31 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>2769</v>
+        <v>2236</v>
       </c>
       <c r="B41" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B42" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>3110</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B42">
-    <sortCondition ref="A1:A42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B43">
+    <sortCondition ref="A1:A43"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F7CA7D-6FB4-4A8B-A276-9517E43C4092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6842449-018D-484B-A907-5F685146224D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -607,15 +607,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>1021</v>
+        <v>876</v>
       </c>
       <c r="B30" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B31" s="1">
         <v>45712</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B32" s="1">
         <v>45712</v>
@@ -631,39 +631,39 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B33" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B34" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>1672</v>
+        <v>1480</v>
       </c>
       <c r="B35" s="1">
-        <v>45712</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B36" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B37" s="1">
         <v>45464</v>
@@ -671,15 +671,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B38" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B39" s="1">
         <v>45713</v>
@@ -687,15 +687,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B40" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B41" s="1">
         <v>45711</v>
@@ -703,23 +703,31 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>2769</v>
+        <v>2236</v>
       </c>
       <c r="B42" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B43" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>3110</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B43">
-    <sortCondition ref="A1:A43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B44">
+    <sortCondition ref="A1:A44"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6842449-018D-484B-A907-5F685146224D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989DB2CC-2859-42A1-AB8F-9B6CFB4AFD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -655,23 +655,23 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B36" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B37" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B38" s="1">
         <v>45464</v>
@@ -679,15 +679,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B39" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B40" s="1">
         <v>45713</v>
@@ -695,15 +695,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B41" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B42" s="1">
         <v>45711</v>
@@ -711,23 +711,31 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>2769</v>
+        <v>2236</v>
       </c>
       <c r="B43" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B44" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>3110</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B44">
-    <sortCondition ref="A1:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B45">
+    <sortCondition ref="A1:A45"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
